--- a/Projects/Butterfly data.xlsx
+++ b/Projects/Butterfly data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88B7E2ED-EEE9-2F4F-A454-5A899CFABEDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CEDA59-4AB5-6F42-8191-3873D9153116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6280" yWindow="760" windowWidth="22040" windowHeight="16460" tabRatio="649" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flight parameters insectary" sheetId="16" r:id="rId1"/>
@@ -11463,7 +11463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E07C13E-8A28-E148-8A36-32432F531921}">
   <dimension ref="A1:W243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -28692,8 +28692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F1B0EA-D27F-B843-9127-F024932F5B58}">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView topLeftCell="B177" workbookViewId="0">
-      <selection activeCell="F242" sqref="F242"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
